--- a/EVA BefehlsKürzel.xlsx
+++ b/EVA BefehlsKürzel.xlsx
@@ -156,9 +156,6 @@
     <t>Name des 2. Spielers</t>
   </si>
   <si>
-    <t>Spielfeld</t>
-  </si>
-  <si>
     <t>Boolean</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>TurnResponse (valide Turn?)</t>
+  </si>
+  <si>
+    <t>Boolean; Spielfeld</t>
   </si>
 </sst>
 </file>
@@ -516,7 +516,7 @@
   <dimension ref="B6:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
         <v>25</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -693,7 +693,7 @@
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -701,10 +701,10 @@
         <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">

--- a/EVA BefehlsKürzel.xlsx
+++ b/EVA BefehlsKürzel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>Befehle vom Server</t>
   </si>
@@ -123,12 +123,6 @@
     <t>Pingantwort</t>
   </si>
   <si>
-    <t>Player left GameLobby</t>
-  </si>
-  <si>
-    <t>Player joined GameLobby</t>
-  </si>
-  <si>
     <t>~~30</t>
   </si>
   <si>
@@ -165,7 +159,49 @@
     <t>TurnResponse (valide Turn?)</t>
   </si>
   <si>
-    <t>Boolean; Spielfeld</t>
+    <t>Boolean;Spielfeld</t>
+  </si>
+  <si>
+    <t>~~70</t>
+  </si>
+  <si>
+    <t>~~71</t>
+  </si>
+  <si>
+    <t>give me OpenGames</t>
+  </si>
+  <si>
+    <t>SpielerListe</t>
+  </si>
+  <si>
+    <t>GameListe</t>
+  </si>
+  <si>
+    <t>SpielName</t>
+  </si>
+  <si>
+    <t>Collumn</t>
+  </si>
+  <si>
+    <t>~~80</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>other Player joined GameLobby</t>
+  </si>
+  <si>
+    <t>other Player left GameLobby</t>
+  </si>
+  <si>
+    <t>~~40</t>
+  </si>
+  <si>
+    <t>disconnect Client</t>
+  </si>
+  <si>
+    <t>give me PlayerLobby</t>
   </si>
 </sst>
 </file>
@@ -513,212 +549,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:J26"/>
+  <dimension ref="B3:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="3.42578125" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
-        <v>1</v>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>44</v>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H12" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>23</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
-        <v>45</v>
-      </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
+      <c r="E19" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>33</v>
+      </c>
       <c r="H23" t="s">
         <v>32</v>
       </c>
@@ -727,26 +810,16 @@
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>34</v>
+      </c>
       <c r="H24" t="s">
         <v>12</v>
       </c>
       <c r="I24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s">
         <v>34</v>
       </c>
     </row>
